--- a/test_scenarios.xlsx
+++ b/test_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanumr1.LCA\AI\AiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A033B-4A45-4761-B54A-2D5C896BB360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF063C0-A3C8-4B03-8787-9FE38FEDBD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35715" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{46120D12-6695-404D-AB7A-A601F9B8B963}"/>
+    <workbookView xWindow="33780" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{46120D12-6695-404D-AB7A-A601F9B8B963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>24804</v>
+        <v>17863</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
